--- a/docs/UI-ideas.xlsx
+++ b/docs/UI-ideas.xlsx
@@ -106,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -449,7 +450,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
